--- a/sputnik/personal/ee/190ee.xlsx
+++ b/sputnik/personal/ee/190ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Т1</t>
   </si>
@@ -24,15 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,10 +36,22 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t xml:space="preserve">910,45 - 4,57 =905,88, а оплачено 901,31р.Необходимо доплатить -4,57р. </t>
-  </si>
-  <si>
-    <t>доплачено</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -53,9 +59,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,19 +84,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -100,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,35 +129,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -177,21 +146,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,132 +460,135 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43851</v>
+        <v>43591</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>7160</v>
-      </c>
-      <c r="D2" s="3">
-        <f>C2-C4</f>
-        <v>110</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F2" s="6">
-        <f t="shared" ref="F2:F7" si="0">D2*E2</f>
-        <v>493.90000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6462</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>2740</v>
-      </c>
-      <c r="D3" s="3">
-        <f>C3-C5</f>
-        <v>40</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" si="0"/>
-        <v>97.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2467</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43783</v>
+        <v>43648</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>7050</v>
+        <v>6640</v>
       </c>
       <c r="D4" s="3">
-        <f>C4-C6</f>
-        <v>127</v>
+        <f>C4-C2</f>
+        <v>178</v>
       </c>
       <c r="E4" s="3">
         <v>4.49</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" si="0"/>
-        <v>570.23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="7">
+        <f>D4*E4</f>
+        <v>799.22</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>993.62</v>
+      </c>
+      <c r="H4" s="8">
+        <v>993.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2700</v>
+        <v>2547</v>
       </c>
       <c r="D5" s="3">
-        <f>C5-C7</f>
-        <v>46</v>
+        <f t="shared" ref="D5:D11" si="0">C5-C3</f>
+        <v>80</v>
       </c>
       <c r="E5" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="6">
-        <f t="shared" si="0"/>
-        <v>111.78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="7">
+        <f>D5*E5</f>
+        <v>194.4</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43718</v>
       </c>
@@ -635,18 +599,25 @@
         <v>6923</v>
       </c>
       <c r="D6" s="3">
-        <f>C6-C9</f>
+        <f t="shared" si="0"/>
         <v>283</v>
       </c>
       <c r="E6" s="3">
         <v>4.49</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="0"/>
+      <c r="F6" s="7">
+        <f t="shared" ref="F6:F11" si="1">D6*E6</f>
         <v>1270.67</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="8">
+        <f>SUM(F6,F7)</f>
+        <v>1530.68</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1530.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -655,281 +626,145 @@
         <v>2654</v>
       </c>
       <c r="D7" s="3">
-        <f>C7-C10</f>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="E7" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>260.01</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43783</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7050</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>260.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6">
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43648</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>570.23</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(F8,F9)</f>
+        <v>682.01</v>
+      </c>
+      <c r="H8" s="8">
+        <v>682.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>111.78</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43851</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
-        <v>6640</v>
-      </c>
-      <c r="D9" s="3">
-        <f>C9-C12</f>
-        <v>178</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="C10" s="3">
+        <v>7160</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="E10" s="3">
         <v>4.49</v>
       </c>
-      <c r="F9" s="6">
-        <f>D9*E9</f>
-        <v>799.22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>493.90000000000003</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>591.1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>591.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
-        <v>2547</v>
-      </c>
-      <c r="D10" s="3">
-        <f>C10-C13</f>
-        <v>80</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="C11" s="3">
+        <v>2740</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>194.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43591</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43591</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>97.2</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(G2:G11)</f>
+        <v>3797.4100000000003</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H2:H11)</f>
+        <v>3797.4100000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <f>SUM(H12,-G12)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="3">
-        <v>6462</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D17" si="1">C12-C14</f>
-        <v>160</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>731.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2467</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
-        <v>179.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43527</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6302</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>162</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.57</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" ref="F14:F19" si="2">D14*E14</f>
-        <v>740.34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2392</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="2"/>
-        <v>198.37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43486</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6140</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>142</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4.57</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="2"/>
-        <v>648.94000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2309</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="2"/>
-        <v>74.09</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43410</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>5998</v>
-      </c>
-      <c r="D18" s="3">
-        <f>C18-C20</f>
-        <v>156</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="2"/>
-        <v>702</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2278</v>
-      </c>
-      <c r="D19" s="3">
-        <f>C19-C21</f>
-        <v>58</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="2"/>
-        <v>136.30000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43351</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5">
-        <v>5842</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2220</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B11:F11"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/190ee.xlsx
+++ b/sputnik/personal/ee/190ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Т1</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>остаток</t>
+  </si>
+  <si>
+    <t>Начислены пени 104 дн</t>
   </si>
 </sst>
 </file>
@@ -61,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +87,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -93,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -129,11 +139,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -153,6 +176,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -460,10 +490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -742,26 +772,103 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7404</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="2">C12-C10</f>
+        <v>244</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" ref="F12:F13" si="3">D12*E12</f>
+        <v>1095.56</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>1243.79</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1243.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2801</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="3"/>
+        <v>148.23000000000002</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="H14" s="8">
+        <v>129.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="8">
-        <f>SUM(G2:G11)</f>
-        <v>3797.4100000000003</v>
-      </c>
-      <c r="H12" s="8">
-        <f>SUM(H2:H11)</f>
-        <v>3797.4100000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2" t="s">
+      <c r="G15" s="8">
+        <f>SUM(G2:G14)</f>
+        <v>5120.8000000000011</v>
+      </c>
+      <c r="H15" s="8">
+        <f>SUM(H2:H14)</f>
+        <v>5170.6000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <f>SUM(H12,-G12)</f>
-        <v>0</v>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8">
+        <f>SUM(H15,-G15)</f>
+        <v>49.799999999999272</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/190ee.xlsx
+++ b/sputnik/personal/ee/190ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Начислены пени 104 дн</t>
+  </si>
+  <si>
+    <t>Т</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -827,7 +830,7 @@
         <v>43955</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -849,26 +852,77 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="9" t="s">
+      <c r="A15" s="4">
+        <v>44001</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7714</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-C12</f>
+        <v>310</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" ref="F15:F16" si="4">D15*E15</f>
+        <v>1391.9</v>
+      </c>
+      <c r="G15" s="8">
+        <f>SUM(F15,F16)</f>
+        <v>1664.0600000000002</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1664.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2913</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16-C13</f>
+        <v>112</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="4"/>
+        <v>272.16000000000003</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="8">
-        <f>SUM(G2:G14)</f>
-        <v>5120.8000000000011</v>
-      </c>
-      <c r="H15" s="8">
-        <f>SUM(H2:H14)</f>
-        <v>5170.6000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="G17" s="8">
+        <f>SUM(G2:G16)</f>
+        <v>6784.8600000000015</v>
+      </c>
+      <c r="H17" s="8">
+        <f>SUM(H2:H16)</f>
+        <v>6834.66</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8">
-        <f>SUM(H15,-G15)</f>
-        <v>49.799999999999272</v>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8">
+        <f>SUM(H17,-G17)</f>
+        <v>49.799999999998363</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/190ee.xlsx
+++ b/sputnik/personal/ee/190ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -902,26 +902,77 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="9" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44067</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7913</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17-C15</f>
+        <v>199</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" ref="F17:F18" si="5">D17*E17</f>
+        <v>937.29</v>
+      </c>
+      <c r="G17" s="8">
+        <f>SUM(F17,F18)</f>
+        <v>1120.8899999999999</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1120.8900000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2985</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18-C16</f>
+        <v>72</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="5"/>
+        <v>183.6</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="8">
-        <f>SUM(G2:G16)</f>
-        <v>6784.8600000000015</v>
-      </c>
-      <c r="H17" s="8">
-        <f>SUM(H2:H16)</f>
-        <v>6834.66</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="G19" s="8">
+        <f>SUM(G2:G18)</f>
+        <v>7905.7500000000018</v>
+      </c>
+      <c r="H19" s="8">
+        <f>SUM(H2:H18)</f>
+        <v>7955.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8">
-        <f>SUM(H17,-G17)</f>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8">
+        <f>SUM(H19,-G19)</f>
         <v>49.799999999998363</v>
       </c>
     </row>

--- a/sputnik/personal/ee/190ee.xlsx
+++ b/sputnik/personal/ee/190ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -493,10 +493,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -954,26 +954,77 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="9" t="s">
+      <c r="A19" s="4">
+        <v>44132</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8175</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19-C17</f>
+        <v>262</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" ref="F19:F20" si="6">D19*E19</f>
+        <v>1234.02</v>
+      </c>
+      <c r="G19" s="8">
+        <f>SUM(F19,F20)</f>
+        <v>1568.07</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1568.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3116</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20-C18</f>
+        <v>131</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="6"/>
+        <v>334.04999999999995</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="8">
-        <f>SUM(G2:G18)</f>
-        <v>7905.7500000000018</v>
-      </c>
-      <c r="H19" s="8">
-        <f>SUM(H2:H18)</f>
-        <v>7955.55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="G21" s="8">
+        <f>SUM(G2:G20)</f>
+        <v>9473.8200000000015</v>
+      </c>
+      <c r="H21" s="8">
+        <f>SUM(H2:H20)</f>
+        <v>9523.6200000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8">
-        <f>SUM(H19,-G19)</f>
-        <v>49.799999999998363</v>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
+        <f>SUM(H21,-G21)</f>
+        <v>49.799999999999272</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/190ee.xlsx
+++ b/sputnik/personal/ee/190ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -92,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +102,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -154,6 +166,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -434,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,31 +492,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44132</v>
+        <v>44207</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>8175</v>
+        <v>8596</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(C2,-C4)</f>
-        <v>262</v>
+        <v>421</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F11" si="0">D2*E2</f>
-        <v>1234.02</v>
-      </c>
-      <c r="G2" s="8">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>1982.91</v>
+      </c>
+      <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>1568.07</v>
-      </c>
-      <c r="H2" s="8">
-        <v>1568.0740000000001</v>
+        <v>2431.71</v>
+      </c>
+      <c r="H2" s="13">
+        <v>2430.91</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -511,49 +525,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3116</v>
+        <v>3292</v>
       </c>
       <c r="D3" s="3">
         <f>SUM(C3,-C5)</f>
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>334.04999999999995</v>
+        <v>448.79999999999995</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>44067</v>
+      <c r="A4" s="12">
+        <v>44132</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>7913</v>
+        <v>8175</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="1">SUM(C4,-C6)</f>
-        <v>199</v>
+        <f>SUM(C4,-C6)</f>
+        <v>262</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>937.29</v>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
+        <v>1234.02</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G10" si="2">SUM(F4,F5)</f>
-        <v>1120.8899999999999</v>
+        <f>SUM(F4,F5)</f>
+        <v>1568.07</v>
       </c>
       <c r="H4" s="8">
-        <v>1120.8900000000001</v>
+        <v>1568.0740000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -562,49 +576,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>2985</v>
+        <v>3116</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <f>SUM(C5,-C7)</f>
+        <v>131</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>183.6</v>
+        <f t="shared" si="1"/>
+        <v>334.04999999999995</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44001</v>
+        <v>44067</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>7714</v>
+        <v>7913</v>
       </c>
       <c r="D6" s="3">
+        <f t="shared" ref="D6:D9" si="2">SUM(C6,-C8)</f>
+        <v>199</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
-        <v>310</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>1391.9</v>
+        <v>937.29</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="2"/>
-        <v>1664.0600000000002</v>
+        <f t="shared" ref="G6:G8" si="3">SUM(F6,F7)</f>
+        <v>1120.8899999999999</v>
       </c>
       <c r="H6" s="8">
-        <v>1664.06</v>
+        <v>1120.8900000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -613,37 +627,50 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>2913</v>
+        <v>2985</v>
       </c>
       <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>272.16000000000003</v>
+        <v>183.6</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43955</v>
+        <v>44001</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>7404</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+        <v>7714</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>1391.9</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="3"/>
+        <v>1664.0600000000002</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1664.06</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -651,18 +678,32 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>2801</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="3"/>
+        <v>2913</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>272.16000000000003</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7404</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="8"/>
@@ -671,49 +712,87 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2801</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/190ee.xlsx
+++ b/sputnik/personal/ee/190ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\23.01.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 25.01.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 01.03.2021\01.02.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 15.02.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -145,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -168,6 +168,11 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -448,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,31 +497,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44207</v>
+        <v>44266</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>8596</v>
+        <v>8775</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(C2,-C4)</f>
-        <v>421</v>
+        <v>179</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>1982.91</v>
+        <v>843.09</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>2431.71</v>
+        <v>1080.24</v>
       </c>
       <c r="H2" s="13">
-        <v>2430.91</v>
+        <v>1080.56</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -525,151 +530,151 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3292</v>
+        <v>3385</v>
       </c>
       <c r="D3" s="3">
         <f>SUM(C3,-C5)</f>
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>448.79999999999995</v>
+        <v>237.14999999999998</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
+        <v>44207</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="15">
+        <v>8596</v>
+      </c>
+      <c r="D4" s="15">
+        <f>SUM(C4,-C6)</f>
+        <v>421</v>
+      </c>
+      <c r="E4" s="15">
+        <v>4.71</v>
+      </c>
+      <c r="F4" s="16">
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>1982.91</v>
+      </c>
+      <c r="G4" s="16">
+        <f>SUM(F4,F5)</f>
+        <v>2431.71</v>
+      </c>
+      <c r="H4" s="16">
+        <v>2430.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3292</v>
+      </c>
+      <c r="D5" s="15">
+        <f>SUM(C5,-C7)</f>
+        <v>176</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F5" s="16">
+        <f t="shared" si="1"/>
+        <v>448.79999999999995</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>44132</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>8175</v>
-      </c>
-      <c r="D4" s="3">
-        <f>SUM(C4,-C6)</f>
-        <v>262</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>1234.02</v>
-      </c>
-      <c r="G4" s="8">
-        <f>SUM(F4,F5)</f>
-        <v>1568.07</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1568.0740000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3116</v>
-      </c>
-      <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
-        <v>131</v>
-      </c>
-      <c r="E5" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>334.04999999999995</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>44067</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>7913</v>
+        <v>8175</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D9" si="2">SUM(C6,-C8)</f>
-        <v>199</v>
+        <f>SUM(C6,-C8)</f>
+        <v>262</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>937.29</v>
+        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
+        <v>1234.02</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" ref="G6:G8" si="3">SUM(F6,F7)</f>
-        <v>1120.8899999999999</v>
+        <f>SUM(F6,F7)</f>
+        <v>1568.07</v>
       </c>
       <c r="H6" s="8">
-        <v>1120.8900000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1568.0740000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>2985</v>
+        <v>3116</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>72</v>
+        <f>SUM(C7,-C9)</f>
+        <v>131</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>183.6</v>
+        <f t="shared" si="2"/>
+        <v>334.04999999999995</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44001</v>
+        <v>44067</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>7714</v>
+        <v>7913</v>
       </c>
       <c r="D8" s="3">
+        <f t="shared" ref="D8:D11" si="3">SUM(C8,-C10)</f>
+        <v>199</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
         <f t="shared" si="2"/>
-        <v>310</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>1391.9</v>
+        <v>937.29</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="3"/>
-        <v>1664.0600000000002</v>
+        <f t="shared" ref="G8:G10" si="4">SUM(F8,F9)</f>
+        <v>1120.8899999999999</v>
       </c>
       <c r="H8" s="8">
-        <v>1664.06</v>
+        <v>1120.8900000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -678,37 +683,50 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>2913</v>
+        <v>2985</v>
       </c>
       <c r="D9" s="3">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="1"/>
-        <v>272.16000000000003</v>
+        <v>183.6</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43955</v>
+        <v>44001</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>7404</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+        <v>7714</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>1391.9</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="4"/>
+        <v>1664.0600000000002</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1664.06</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -716,18 +734,32 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>2801</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="3"/>
+        <v>2913</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>272.16000000000003</v>
+      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7404</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="8"/>
@@ -736,63 +768,87 @@
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2801</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/190ee.xlsx
+++ b/sputnik/personal/ee/190ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 01.03.2021\01.02.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 15.02.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,31 +497,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44266</v>
+        <v>44327</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>8775</v>
+        <v>9027</v>
       </c>
       <c r="D2" s="3">
-        <f>SUM(C2,-C4)</f>
-        <v>179</v>
+        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
+        <v>252</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>843.09</v>
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>1186.92</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>1080.24</v>
+        <v>1505.67</v>
       </c>
       <c r="H2" s="13">
-        <v>1080.56</v>
+        <v>1505.67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -530,151 +530,151 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3385</v>
+        <v>3510</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>125</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>237.14999999999998</v>
+        <f t="shared" si="1"/>
+        <v>318.75</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44207</v>
-      </c>
-      <c r="B4" s="14" t="s">
+        <v>44266</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15">
-        <v>8596</v>
-      </c>
-      <c r="D4" s="15">
-        <f>SUM(C4,-C6)</f>
-        <v>421</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="C4" s="3">
+        <v>8775</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="E4" s="3">
         <v>4.71</v>
       </c>
-      <c r="F4" s="16">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>1982.91</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
+        <v>843.09</v>
+      </c>
+      <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>2431.71</v>
-      </c>
-      <c r="H4" s="16">
-        <v>2430.91</v>
+        <v>1080.24</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1080.56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
-        <v>3292</v>
-      </c>
-      <c r="D5" s="15">
-        <f>SUM(C5,-C7)</f>
-        <v>176</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="C5" s="3">
+        <v>3385</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F5" s="16">
-        <f t="shared" si="1"/>
-        <v>448.79999999999995</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="8">
+        <f t="shared" si="2"/>
+        <v>237.14999999999998</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
+        <v>44207</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="15">
+        <v>8596</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>421</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>1982.91</v>
+      </c>
+      <c r="G6" s="16">
+        <f>SUM(F6,F7)</f>
+        <v>2431.71</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2430.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="15">
+        <v>3292</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="3"/>
+        <v>448.79999999999995</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>44132</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>8175</v>
-      </c>
-      <c r="D6" s="3">
-        <f>SUM(C6,-C8)</f>
-        <v>262</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" ref="F6:F11" si="2">D6*E6</f>
-        <v>1234.02</v>
-      </c>
-      <c r="G6" s="8">
-        <f>SUM(F6,F7)</f>
-        <v>1568.07</v>
-      </c>
-      <c r="H6" s="8">
-        <v>1568.0740000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3116</v>
-      </c>
-      <c r="D7" s="3">
-        <f>SUM(C7,-C9)</f>
-        <v>131</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="2"/>
-        <v>334.04999999999995</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>44067</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>7913</v>
+        <v>8175</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D11" si="3">SUM(C8,-C10)</f>
-        <v>199</v>
+        <f t="shared" si="0"/>
+        <v>262</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="2"/>
-        <v>937.29</v>
+        <f t="shared" ref="F8:F13" si="4">D8*E8</f>
+        <v>1234.02</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" ref="G8:G10" si="4">SUM(F8,F9)</f>
-        <v>1120.8899999999999</v>
+        <f>SUM(F8,F9)</f>
+        <v>1568.07</v>
       </c>
       <c r="H8" s="8">
-        <v>1120.8900000000001</v>
+        <v>1568.0740000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -683,49 +683,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>2985</v>
+        <v>3116</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="3"/>
-        <v>72</v>
+        <f t="shared" si="0"/>
+        <v>131</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="2"/>
-        <v>183.6</v>
+        <f t="shared" si="4"/>
+        <v>334.04999999999995</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44001</v>
+        <v>44067</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>7714</v>
+        <v>7913</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="3"/>
-        <v>310</v>
+        <f t="shared" ref="D10:D13" si="5">SUM(C10,-C12)</f>
+        <v>199</v>
       </c>
       <c r="E10" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="2"/>
-        <v>1391.9</v>
+        <f t="shared" si="4"/>
+        <v>937.29</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="4"/>
-        <v>1664.0600000000002</v>
+        <f t="shared" ref="G10:G12" si="6">SUM(F10,F11)</f>
+        <v>1120.8899999999999</v>
       </c>
       <c r="H10" s="8">
-        <v>1664.06</v>
+        <v>1120.8900000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -734,37 +734,50 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>2913</v>
+        <v>2985</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="3"/>
-        <v>112</v>
+        <f t="shared" si="5"/>
+        <v>72</v>
       </c>
       <c r="E11" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="2"/>
-        <v>272.16000000000003</v>
+        <f t="shared" si="4"/>
+        <v>183.6</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43955</v>
+        <v>44001</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>7404</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+        <v>7714</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="5"/>
+        <v>310</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>1391.9</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="6"/>
+        <v>1664.0600000000002</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1664.06</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
@@ -772,18 +785,32 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>2801</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="3"/>
+        <v>2913</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="4"/>
+        <v>272.16000000000003</v>
+      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7404</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="8"/>
@@ -792,63 +819,87 @@
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2801</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/190ee.xlsx
+++ b/sputnik/personal/ee/190ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,31 +497,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44327</v>
+        <v>44335</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>9027</v>
+        <v>9233</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D9" si="0">SUM(C2,-C4)</f>
-        <v>252</v>
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>206</v>
       </c>
       <c r="E2" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1186.92</v>
+        <v>1021.76</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>1505.67</v>
+        <v>1276.3600000000001</v>
       </c>
       <c r="H2" s="13">
-        <v>1505.67</v>
+        <v>1276.3599999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -530,49 +530,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3510</v>
+        <v>3605</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>318.75</v>
+        <v>254.60000000000002</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44266</v>
+        <v>44327</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>8775</v>
+        <v>9027</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>179</v>
+        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
+        <v>252</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="2">D4*E4</f>
-        <v>843.09</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>1186.92</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>1080.24</v>
+        <v>1505.67</v>
       </c>
       <c r="H4" s="13">
-        <v>1080.56</v>
+        <v>1505.67</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -581,151 +581,151 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>3385</v>
+        <v>3510</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>93</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="2"/>
-        <v>237.14999999999998</v>
+        <f t="shared" si="3"/>
+        <v>318.75</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44207</v>
-      </c>
-      <c r="B6" s="14" t="s">
+        <v>44266</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15">
-        <v>8596</v>
-      </c>
-      <c r="D6" s="15">
-        <f t="shared" si="0"/>
-        <v>421</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="C6" s="3">
+        <v>8775</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="E6" s="3">
         <v>4.71</v>
       </c>
-      <c r="F6" s="16">
-        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
-        <v>1982.91</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="F6" s="8">
+        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
+        <v>843.09</v>
+      </c>
+      <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>2431.71</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2430.91</v>
+        <v>1080.24</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1080.56</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15">
-        <v>3292</v>
-      </c>
-      <c r="D7" s="15">
-        <f t="shared" si="0"/>
-        <v>176</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="C7" s="3">
+        <v>3385</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F7" s="16">
-        <f t="shared" si="3"/>
-        <v>448.79999999999995</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="8">
+        <f t="shared" si="4"/>
+        <v>237.14999999999998</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
+        <v>44207</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="15">
+        <v>8596</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="2"/>
+        <v>421</v>
+      </c>
+      <c r="E8" s="15">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>1982.91</v>
+      </c>
+      <c r="G8" s="16">
+        <f>SUM(F8,F9)</f>
+        <v>2431.71</v>
+      </c>
+      <c r="H8" s="16">
+        <v>2430.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3292</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="5"/>
+        <v>448.79999999999995</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>44132</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>8175</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>262</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" ref="F8:F13" si="4">D8*E8</f>
-        <v>1234.02</v>
-      </c>
-      <c r="G8" s="8">
-        <f>SUM(F8,F9)</f>
-        <v>1568.07</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1568.0740000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3116</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="4"/>
-        <v>334.04999999999995</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>44067</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>7913</v>
+        <v>8175</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D13" si="5">SUM(C10,-C12)</f>
-        <v>199</v>
+        <f t="shared" si="2"/>
+        <v>262</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="4"/>
-        <v>937.29</v>
+        <f t="shared" ref="F10:F15" si="6">D10*E10</f>
+        <v>1234.02</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" ref="G10:G12" si="6">SUM(F10,F11)</f>
-        <v>1120.8899999999999</v>
+        <f>SUM(F10,F11)</f>
+        <v>1568.07</v>
       </c>
       <c r="H10" s="8">
-        <v>1120.8900000000001</v>
+        <v>1568.0740000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -734,49 +734,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>2985</v>
+        <v>3116</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="5"/>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>131</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="4"/>
-        <v>183.6</v>
+        <f t="shared" si="6"/>
+        <v>334.04999999999995</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44001</v>
+        <v>44067</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>7714</v>
+        <v>7913</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="5"/>
-        <v>310</v>
+        <f t="shared" ref="D12:D15" si="7">SUM(C12,-C14)</f>
+        <v>199</v>
       </c>
       <c r="E12" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="4"/>
-        <v>1391.9</v>
+        <f t="shared" si="6"/>
+        <v>937.29</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="6"/>
-        <v>1664.0600000000002</v>
+        <f t="shared" ref="G12:G14" si="8">SUM(F12,F13)</f>
+        <v>1120.8899999999999</v>
       </c>
       <c r="H12" s="8">
-        <v>1664.06</v>
+        <v>1120.8900000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -785,37 +785,50 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>2913</v>
+        <v>2985</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="5"/>
-        <v>112</v>
+        <f t="shared" si="7"/>
+        <v>72</v>
       </c>
       <c r="E13" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="4"/>
-        <v>272.16000000000003</v>
+        <f t="shared" si="6"/>
+        <v>183.6</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43955</v>
+        <v>44001</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>7404</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+        <v>7714</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="7"/>
+        <v>310</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="6"/>
+        <v>1391.9</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="8"/>
+        <v>1664.0600000000002</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1664.06</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -823,18 +836,32 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>2801</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="3"/>
+        <v>2913</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="6"/>
+        <v>272.16000000000003</v>
+      </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7404</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="8"/>
@@ -843,63 +870,87 @@
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2801</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="5"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/190ee.xlsx
+++ b/sputnik/personal/ee/190ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,31 +497,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44335</v>
+        <v>44482</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>9233</v>
+        <v>9722</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>206</v>
+        <v>489</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>1021.76</v>
+        <v>2425.44</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>1276.3600000000001</v>
+        <v>2856.92</v>
       </c>
       <c r="H2" s="13">
-        <v>1276.3599999999999</v>
+        <v>2856.92</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -530,49 +530,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3605</v>
+        <v>3766</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>254.60000000000002</v>
+        <v>431.48</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44327</v>
+        <v>44335</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>9027</v>
+        <v>9233</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="2">SUM(C4,-C6)</f>
-        <v>252</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>206</v>
       </c>
       <c r="E4" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1186.92</v>
+        <v>1021.76</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>1505.67</v>
+        <v>1276.3600000000001</v>
       </c>
       <c r="H4" s="13">
-        <v>1505.67</v>
+        <v>1276.3599999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -581,49 +581,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>3510</v>
+        <v>3605</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="E5" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>318.75</v>
+        <v>254.60000000000002</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44266</v>
+        <v>44327</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>8775</v>
+        <v>9027</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="2"/>
-        <v>179</v>
+        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
+        <v>252</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="4">D6*E6</f>
-        <v>843.09</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>1186.92</v>
       </c>
       <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>1080.24</v>
+        <v>1505.67</v>
       </c>
       <c r="H6" s="13">
-        <v>1080.56</v>
+        <v>1505.67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -632,151 +632,151 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>3385</v>
+        <v>3510</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>93</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="4"/>
-        <v>237.14999999999998</v>
+        <f t="shared" si="5"/>
+        <v>318.75</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44207</v>
-      </c>
-      <c r="B8" s="14" t="s">
+        <v>44266</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15">
-        <v>8596</v>
-      </c>
-      <c r="D8" s="15">
-        <f t="shared" si="2"/>
-        <v>421</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="C8" s="3">
+        <v>8775</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="E8" s="3">
         <v>4.71</v>
       </c>
-      <c r="F8" s="16">
-        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
-        <v>1982.91</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>843.09</v>
+      </c>
+      <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
-        <v>2431.71</v>
-      </c>
-      <c r="H8" s="16">
-        <v>2430.91</v>
+        <v>1080.24</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1080.56</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15">
-        <v>3292</v>
-      </c>
-      <c r="D9" s="15">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="C9" s="3">
+        <v>3385</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F9" s="16">
-        <f t="shared" si="5"/>
-        <v>448.79999999999995</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="8">
+        <f t="shared" si="6"/>
+        <v>237.14999999999998</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
+        <v>44207</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15">
+        <v>8596</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="4"/>
+        <v>421</v>
+      </c>
+      <c r="E10" s="15">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>1982.91</v>
+      </c>
+      <c r="G10" s="16">
+        <f>SUM(F10,F11)</f>
+        <v>2431.71</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2430.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15">
+        <v>3292</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="7"/>
+        <v>448.79999999999995</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>44132</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>8175</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="2"/>
-        <v>262</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" ref="F10:F15" si="6">D10*E10</f>
-        <v>1234.02</v>
-      </c>
-      <c r="G10" s="8">
-        <f>SUM(F10,F11)</f>
-        <v>1568.07</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1568.0740000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3116</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="2"/>
-        <v>131</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="6"/>
-        <v>334.04999999999995</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44067</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>7913</v>
+        <v>8175</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D15" si="7">SUM(C12,-C14)</f>
-        <v>199</v>
+        <f t="shared" si="4"/>
+        <v>262</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="6"/>
-        <v>937.29</v>
+        <f t="shared" ref="F12:F17" si="8">D12*E12</f>
+        <v>1234.02</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" ref="G12:G14" si="8">SUM(F12,F13)</f>
-        <v>1120.8899999999999</v>
+        <f>SUM(F12,F13)</f>
+        <v>1568.07</v>
       </c>
       <c r="H12" s="8">
-        <v>1120.8900000000001</v>
+        <v>1568.0740000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -785,49 +785,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>2985</v>
+        <v>3116</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="7"/>
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>131</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="6"/>
-        <v>183.6</v>
+        <f t="shared" si="8"/>
+        <v>334.04999999999995</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>44001</v>
+        <v>44067</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>7714</v>
+        <v>7913</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="7"/>
-        <v>310</v>
+        <f t="shared" ref="D14:D17" si="9">SUM(C14,-C16)</f>
+        <v>199</v>
       </c>
       <c r="E14" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="6"/>
-        <v>1391.9</v>
+        <f t="shared" si="8"/>
+        <v>937.29</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="8"/>
-        <v>1664.0600000000002</v>
+        <f t="shared" ref="G14:G16" si="10">SUM(F14,F15)</f>
+        <v>1120.8899999999999</v>
       </c>
       <c r="H14" s="8">
-        <v>1664.06</v>
+        <v>1120.8900000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -836,37 +836,50 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>2913</v>
+        <v>2985</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="7"/>
-        <v>112</v>
+        <f t="shared" si="9"/>
+        <v>72</v>
       </c>
       <c r="E15" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="6"/>
-        <v>272.16000000000003</v>
+        <f t="shared" si="8"/>
+        <v>183.6</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43955</v>
+        <v>44001</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>7404</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+        <v>7714</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="9"/>
+        <v>310</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="8"/>
+        <v>1391.9</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="10"/>
+        <v>1664.0600000000002</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1664.06</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -874,18 +887,32 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>2801</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="3"/>
+        <v>2913</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="8"/>
+        <v>272.16000000000003</v>
+      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7404</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="8"/>
@@ -894,63 +921,87 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2801</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/190ee.xlsx
+++ b/sputnik/personal/ee/190ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 15.10.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.10.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\30.11.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.11.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,31 +497,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>44482</v>
+        <v>44543</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>9722</v>
+        <v>9783</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
-        <v>489</v>
+        <v>61</v>
       </c>
       <c r="E2" s="3">
         <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="1">D2*E2</f>
-        <v>2425.44</v>
+        <v>302.56</v>
       </c>
       <c r="G2" s="13">
         <f>SUM(F2,F3)</f>
-        <v>2856.92</v>
+        <v>329.36</v>
       </c>
       <c r="H2" s="13">
-        <v>2856.92</v>
+        <v>324.8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -530,49 +530,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>3766</v>
+        <v>3776</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
         <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="1"/>
-        <v>431.48</v>
+        <v>26.8</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>44335</v>
+        <v>44482</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>9233</v>
+        <v>9722</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
-        <v>206</v>
+        <v>489</v>
       </c>
       <c r="E4" s="3">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="3">D4*E4</f>
-        <v>1021.76</v>
+        <v>2425.44</v>
       </c>
       <c r="G4" s="13">
         <f>SUM(F4,F5)</f>
-        <v>1276.3600000000001</v>
+        <v>2856.92</v>
       </c>
       <c r="H4" s="13">
-        <v>1276.3599999999999</v>
+        <v>2856.92</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -581,49 +581,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>3605</v>
+        <v>3766</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="E5" s="3">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="3"/>
-        <v>254.60000000000002</v>
+        <v>431.48</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>44327</v>
+        <v>44335</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>9027</v>
+        <v>9233</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
-        <v>252</v>
+        <f t="shared" ref="D6:D7" si="4">SUM(C6,-C8)</f>
+        <v>206</v>
       </c>
       <c r="E6" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6:F7" si="5">D6*E6</f>
-        <v>1186.92</v>
+        <v>1021.76</v>
       </c>
       <c r="G6" s="13">
         <f>SUM(F6,F7)</f>
-        <v>1505.67</v>
+        <v>1276.3600000000001</v>
       </c>
       <c r="H6" s="13">
-        <v>1505.67</v>
+        <v>1276.3599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -632,49 +632,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>3510</v>
+        <v>3605</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="5"/>
-        <v>318.75</v>
+        <v>254.60000000000002</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>44266</v>
+        <v>44327</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>8775</v>
+        <v>9027</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="4"/>
-        <v>179</v>
+        <f t="shared" ref="D8:D15" si="6">SUM(C8,-C10)</f>
+        <v>252</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
-        <v>843.09</v>
+        <f t="shared" ref="F8:F9" si="7">D8*E8</f>
+        <v>1186.92</v>
       </c>
       <c r="G8" s="13">
         <f>SUM(F8,F9)</f>
-        <v>1080.24</v>
+        <v>1505.67</v>
       </c>
       <c r="H8" s="13">
-        <v>1080.56</v>
+        <v>1505.67</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -683,151 +683,151 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>3385</v>
+        <v>3510</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="4"/>
-        <v>93</v>
+        <f t="shared" si="6"/>
+        <v>125</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="6"/>
-        <v>237.14999999999998</v>
+        <f t="shared" si="7"/>
+        <v>318.75</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>44207</v>
-      </c>
-      <c r="B10" s="14" t="s">
+        <v>44266</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="15">
-        <v>8596</v>
-      </c>
-      <c r="D10" s="15">
-        <f t="shared" si="4"/>
-        <v>421</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="C10" s="3">
+        <v>8775</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="6"/>
+        <v>179</v>
+      </c>
+      <c r="E10" s="3">
         <v>4.71</v>
       </c>
-      <c r="F10" s="16">
-        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
-        <v>1982.91</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="8">D10*E10</f>
+        <v>843.09</v>
+      </c>
+      <c r="G10" s="13">
         <f>SUM(F10,F11)</f>
-        <v>2431.71</v>
-      </c>
-      <c r="H10" s="16">
-        <v>2430.91</v>
+        <v>1080.24</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1080.56</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15">
-        <v>3292</v>
-      </c>
-      <c r="D11" s="15">
-        <f t="shared" si="4"/>
-        <v>176</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="C11" s="3">
+        <v>3385</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="F11" s="16">
-        <f t="shared" si="7"/>
-        <v>448.79999999999995</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="8">
+        <f t="shared" si="8"/>
+        <v>237.14999999999998</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
+        <v>44207</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15">
+        <v>8596</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="6"/>
+        <v>421</v>
+      </c>
+      <c r="E12" s="15">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>1982.91</v>
+      </c>
+      <c r="G12" s="16">
+        <f>SUM(F12,F13)</f>
+        <v>2431.71</v>
+      </c>
+      <c r="H12" s="16">
+        <v>2430.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15">
+        <v>3292</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="9"/>
+        <v>448.79999999999995</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>44132</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>8175</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="4"/>
-        <v>262</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.71</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" ref="F12:F17" si="8">D12*E12</f>
-        <v>1234.02</v>
-      </c>
-      <c r="G12" s="8">
-        <f>SUM(F12,F13)</f>
-        <v>1568.07</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1568.0740000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3116</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="4"/>
-        <v>131</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="8"/>
-        <v>334.04999999999995</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44067</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>7913</v>
+        <v>8175</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" ref="D14:D17" si="9">SUM(C14,-C16)</f>
-        <v>199</v>
+        <f t="shared" si="6"/>
+        <v>262</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="8"/>
-        <v>937.29</v>
+        <f t="shared" ref="F14:F19" si="10">D14*E14</f>
+        <v>1234.02</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" ref="G14:G16" si="10">SUM(F14,F15)</f>
-        <v>1120.8899999999999</v>
+        <f>SUM(F14,F15)</f>
+        <v>1568.07</v>
       </c>
       <c r="H14" s="8">
-        <v>1120.8900000000001</v>
+        <v>1568.0740000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -836,49 +836,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>2985</v>
+        <v>3116</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="9"/>
-        <v>72</v>
+        <f t="shared" si="6"/>
+        <v>131</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="8"/>
-        <v>183.6</v>
+        <f t="shared" si="10"/>
+        <v>334.04999999999995</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>44001</v>
+        <v>44067</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>7714</v>
+        <v>7913</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="9"/>
-        <v>310</v>
+        <f t="shared" ref="D16:D19" si="11">SUM(C16,-C18)</f>
+        <v>199</v>
       </c>
       <c r="E16" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="8"/>
-        <v>1391.9</v>
+        <f t="shared" si="10"/>
+        <v>937.29</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="10"/>
-        <v>1664.0600000000002</v>
+        <f t="shared" ref="G16:G18" si="12">SUM(F16,F17)</f>
+        <v>1120.8899999999999</v>
       </c>
       <c r="H16" s="8">
-        <v>1664.06</v>
+        <v>1120.8900000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -887,37 +887,50 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>2913</v>
+        <v>2985</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="9"/>
-        <v>112</v>
+        <f t="shared" si="11"/>
+        <v>72</v>
       </c>
       <c r="E17" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="8"/>
-        <v>272.16000000000003</v>
+        <f t="shared" si="10"/>
+        <v>183.6</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43955</v>
+        <v>44001</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>7404</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+        <v>7714</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="11"/>
+        <v>310</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="10"/>
+        <v>1391.9</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="12"/>
+        <v>1664.0600000000002</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1664.06</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -925,18 +938,32 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>2801</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="3"/>
+        <v>2913</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="11"/>
+        <v>112</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="10"/>
+        <v>272.16000000000003</v>
+      </c>
+      <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="4">
+        <v>43955</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7404</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="8"/>
@@ -945,63 +972,87 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2801</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="10"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
